--- a/data/interim/compare-sectoring.xlsx
+++ b/data/interim/compare-sectoring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23EA8A2-C7C6-4D11-AE11-B3F9D9E4C5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F32E5-FAD6-40F8-A96F-D495187E9D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22290" yWindow="3075" windowWidth="24750" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="3000" windowWidth="24750" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,9 +1300,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I248"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/data/interim/compare-sectoring.xlsx
+++ b/data/interim/compare-sectoring.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F32E5-FAD6-40F8-A96F-D495187E9D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE29FD54-EC1B-484B-A03A-4488671853CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="3000" windowWidth="24750" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21570" yWindow="3465" windowWidth="24750" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="master" sheetId="4" r:id="rId2"/>
-    <sheet name="master_disagree" sheetId="5" r:id="rId3"/>
+    <sheet name="master" sheetId="6" r:id="rId2"/>
+    <sheet name="master_disagree" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1235,7 +1235,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/interim/compare-sectoring.xlsx
+++ b/data/interim/compare-sectoring.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\Project\B4W-19-01\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE29FD54-EC1B-484B-A03A-4488671853CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6863C0-53F8-41D9-9CFA-3142F5BEF853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21570" yWindow="3465" windowWidth="24750" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="2250" windowWidth="24750" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="master" sheetId="6" r:id="rId2"/>
-    <sheet name="master_disagree" sheetId="7" r:id="rId3"/>
+    <sheet name="master" sheetId="8" r:id="rId2"/>
+    <sheet name="master_disagree" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1235,7 +1235,7 @@
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,7 +1302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
